--- a/biology/Zoologie/Henry_Boardman_Conover/Henry_Boardman_Conover.xlsx
+++ b/biology/Zoologie/Henry_Boardman_Conover/Henry_Boardman_Conover.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Boardman Conover est un militaire et un ornithologue américain, né le 18 janvier 1892 à Chicago et mort le 5 mai 1950 d’une pneumonie dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est Charles Hopkins Conover, homme d’affaires, et de Della Louise née Boardman. Il fait ses études à la Sheffield Scientific School de Yales où il est diplômé d’un Ph. B. en 1912. Il travaille d’abord comme ingénieur puis dans un service commercial à Chicago. Durant la Première Guerre mondiale, il sert comme lieutenant dans l’artillerie.
 Le jeune Henry s’intéresse très tôt pour la nature : il collectionne des œufs d’oiseaux, élève divers animaux comme des caméléons, des perroquets ou des rats blancs. Son père l’encourage de son mieux, bien que n’étant pas chasseur lui-même, il offre une carabine lors du douzième anniversaire de son fils. Celui-ci découvre alors le monde de la chasse, passion de sa vie.
